--- a/resources/admin/admin.xlsx
+++ b/resources/admin/admin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18135" windowHeight="11010"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18135" windowHeight="11010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Домики" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -265,6 +265,36 @@
   </si>
   <si>
     <t>Тестовая категория 66777</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;13. Lorem ipsum dolor sit amet, consectetur adipiscing elit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;14. Lorem ipsum dolor sit amet, consectetur adipiscing elit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;15. Lorem ipsum dolor sit amet, consectetur adipiscing elit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;16. Lorem ipsum dolor sit amet, consectetur adipiscing elit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;17. Lorem ipsum dolor sit amet, consectetur adipiscing elit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;18. Lorem ipsum dolor sit amet, consectetur adipiscing elit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;19. Lorem ipsum dolor sit amet, consectetur adipiscing elit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;20. Lorem ipsum dolor sit amet, consectetur adipiscing elit.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1398,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1622,6 +1652,133 @@
         <v>57</v>
       </c>
     </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1629,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1797,6 +1954,94 @@
         <v>8</v>
       </c>
     </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1804,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2012,6 +2257,90 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2022,7 +2351,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/admin/admin.xlsx
+++ b/resources/admin/admin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18135" windowHeight="11010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18135" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Домики" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -261,12 +261,6 @@
     <t>overwrite</t>
   </si>
   <si>
-    <t>Тестовая категория 3333</t>
-  </si>
-  <si>
-    <t>Тестовая категория 66777</t>
-  </si>
-  <si>
     <t>test5</t>
   </si>
   <si>
@@ -295,6 +289,21 @@
   </si>
   <si>
     <t>&lt;p&gt;20. Lorem ipsum dolor sit amet, consectetur adipiscing elit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Тестовая категория 3</t>
+  </si>
+  <si>
+    <t>Тестовая категория 6</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,7 +1161,7 @@
     <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1">
+    <row r="1" spans="1:29" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -1183,8 +1192,11 @@
       <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AC1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1206,8 +1218,17 @@
       <c r="T2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="X2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1229,16 +1250,22 @@
       <c r="T3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4">
-        <v>1</v>
-      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G4">
         <v>2300</v>
@@ -1255,8 +1282,11 @@
       <c r="T4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AC4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1278,8 +1308,17 @@
       <c r="T5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1301,16 +1340,22 @@
       <c r="T6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7">
-        <v>1</v>
-      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G7">
         <v>2200</v>
@@ -1327,8 +1372,11 @@
       <c r="T7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AC7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -1350,8 +1398,11 @@
       <c r="T8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AC8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1373,8 +1424,11 @@
       <c r="T9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AC9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -1396,8 +1450,11 @@
       <c r="T10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AC10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -1418,6 +1475,9 @@
       </c>
       <c r="T11" t="s">
         <v>74</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1491,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1663,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1680,7 +1740,7 @@
         <v>41</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1694,7 +1754,7 @@
         <v>40</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -1708,10 +1768,10 @@
         <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1728,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -1742,7 +1802,7 @@
         <v>40</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1756,10 +1816,10 @@
         <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -1776,7 +1836,7 @@
         <v>41</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/resources/admin/admin.xlsx
+++ b/resources/admin/admin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18135" windowHeight="11010"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18135" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Домики" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -123,15 +123,6 @@
     <t>money_per_hour</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -304,6 +295,108 @@
   </si>
   <si>
     <t>test8</t>
+  </si>
+  <si>
+    <t>introtext</t>
+  </si>
+  <si>
+    <t>meta title</t>
+  </si>
+  <si>
+    <t>meta description</t>
+  </si>
+  <si>
+    <t>link на внешний ресурс</t>
+  </si>
+  <si>
+    <t>Lorem 1 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 2 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 3 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 4 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 5 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 6 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 7 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 8 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 9 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 10 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 11 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 12 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 13 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 14 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 15 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 16 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 17 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 18 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 19 ipsum dolor</t>
+  </si>
+  <si>
+    <t>Lorem 20 ipsum dolor</t>
+  </si>
+  <si>
+    <t>pub_date</t>
+  </si>
+  <si>
+    <t>22.10.2018</t>
+  </si>
+  <si>
+    <t>21.10.2018</t>
+  </si>
+  <si>
+    <t>16.10.2018</t>
+  </si>
+  <si>
+    <t>15.10.2018</t>
+  </si>
+  <si>
+    <t>14.20.2018</t>
+  </si>
+  <si>
+    <t>12.10.2018</t>
+  </si>
+  <si>
+    <t>28.09.2018</t>
+  </si>
+  <si>
+    <t>11.07.2018</t>
+  </si>
+  <si>
+    <t>13.07.2018</t>
   </si>
 </sst>
 </file>
@@ -806,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,6 +908,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1150,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,9 +1261,9 @@
     <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1">
+    <row r="1" spans="1:25" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1171,313 +1271,313 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:25">
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>2000</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <v>110</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="T2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>3000</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <v>120</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="T3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" t="s">
+    </row>
+    <row r="6" spans="1:25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>2300</v>
+      </c>
+      <c r="H6">
+        <v>130</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="3" t="s">
+    </row>
+    <row r="7" spans="1:25">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1400</v>
+      </c>
+      <c r="H7">
+        <v>140</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>90</v>
+      </c>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4">
-        <v>2300</v>
-      </c>
-      <c r="I4">
-        <v>130</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+    <row r="9" spans="1:25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>2200</v>
+      </c>
+      <c r="H9">
+        <v>160</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1400</v>
-      </c>
-      <c r="I5">
-        <v>140</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC5" s="3" t="s">
+    <row r="11" spans="1:25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>2500</v>
+      </c>
+      <c r="H11">
+        <v>170</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>1500</v>
-      </c>
-      <c r="I6">
-        <v>150</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" t="s">
-        <v>74</v>
-      </c>
-      <c r="X6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC6" s="3" t="s">
+    <row r="12" spans="1:25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>2500</v>
+      </c>
+      <c r="H12">
+        <v>180</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7">
-        <v>2200</v>
-      </c>
-      <c r="I7">
-        <v>160</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC7" s="3" t="s">
+    <row r="13" spans="1:25">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>3000</v>
+      </c>
+      <c r="H13">
+        <v>190</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>2500</v>
-      </c>
-      <c r="I8">
-        <v>170</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC8" s="3" t="s">
+    <row r="14" spans="1:25">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>3400</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>2500</v>
-      </c>
-      <c r="I9">
-        <v>180</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>3000</v>
-      </c>
-      <c r="I10">
-        <v>190</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>3400</v>
-      </c>
-      <c r="I11">
-        <v>200</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1488,359 +1588,482 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="T1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="C2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="1">
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="C18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="R22" t="s">
+        <v>77</v>
+      </c>
+      <c r="T22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="1">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="3" t="s">
+      <c r="O23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="1">
+        <v>18</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="T24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="1">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="3" t="s">
+      <c r="R25" t="s">
+        <v>78</v>
+      </c>
+      <c r="T25" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>89</v>
+      <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1848,9 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1859,16 +2080,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2111,9 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2122,22 +2341,22 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2154,7 +2373,7 @@
         <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2171,7 +2390,7 @@
         <v>500</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2188,7 +2407,7 @@
         <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2408,51 +2627,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2462,11 +2680,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2475,13 +2691,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2489,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2497,55 +2713,55 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>73</v>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
